--- a/report/dictionary.xlsx
+++ b/report/dictionary.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilia\Documents\GitHub\Biomarker\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A43565-3CF8-4B43-A50A-71D70905543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>var_nr</t>
   </si>
@@ -349,47 +343,83 @@
     <t>body_bradykinesia_and_hypokinesia</t>
   </si>
   <si>
-    <t>entropy_of_speech_timing</t>
-  </si>
-  <si>
-    <t>rate_of_speech_timing</t>
-  </si>
-  <si>
-    <t>acceleration_of_speech_timing</t>
-  </si>
-  <si>
-    <t>duration_of_pause_intervals</t>
-  </si>
-  <si>
-    <t>duration_of_voiced_intervals</t>
-  </si>
-  <si>
-    <t>gaping_inbetween_voiced_intervals</t>
-  </si>
-  <si>
-    <t>duration_of_unvoiced_stops</t>
-  </si>
-  <si>
-    <t>decay_of_unvoiced_fricatives</t>
-  </si>
-  <si>
-    <t>relative_loudness_of_respiration</t>
-  </si>
-  <si>
-    <t>pause_intervals_per_respiration</t>
-  </si>
-  <si>
-    <t>rate_of_speech_respiration</t>
-  </si>
-  <si>
-    <t>latency_of_respiratory_exchange</t>
+    <t>entropy_of_speech_timing_reading</t>
+  </si>
+  <si>
+    <t>rate_of_speech_timing_reading</t>
+  </si>
+  <si>
+    <t>acceleration_of_speech_timing_reading</t>
+  </si>
+  <si>
+    <t>duration_of_pause_intervals_reading</t>
+  </si>
+  <si>
+    <t>duration_of_voiced_intervals_reading</t>
+  </si>
+  <si>
+    <t>gaping_inbetween_voiced_intervals_reading</t>
+  </si>
+  <si>
+    <t>duration_of_unvoiced_stops_reading</t>
+  </si>
+  <si>
+    <t>decay_of_unvoiced_fricatives_reading</t>
+  </si>
+  <si>
+    <t>relative_loudness_of_respiration_reading</t>
+  </si>
+  <si>
+    <t>pause_intervals_per_respiration_reading</t>
+  </si>
+  <si>
+    <t>rate_of_speech_respiration_reading</t>
+  </si>
+  <si>
+    <t>latency_of_respiratory_exchange_reading</t>
+  </si>
+  <si>
+    <t>entropy_of_speech_timing_monologue</t>
+  </si>
+  <si>
+    <t>rate_of_speech_timing_monologue</t>
+  </si>
+  <si>
+    <t>acceleration_of_speech_timing_monologue</t>
+  </si>
+  <si>
+    <t>duration_of_pause_intervals_monologue</t>
+  </si>
+  <si>
+    <t>duration_of_voiced_intervals_monologue</t>
+  </si>
+  <si>
+    <t>gaping_inbetween_voiced_intervals_monologue</t>
+  </si>
+  <si>
+    <t>duration_of_unvoiced_stops_monologue</t>
+  </si>
+  <si>
+    <t>decay_of_unvoiced_fricatives_monologue</t>
+  </si>
+  <si>
+    <t>relative_loudness_of_respiration_monologue</t>
+  </si>
+  <si>
+    <t>pause_intervals_per_respiration_monologue</t>
+  </si>
+  <si>
+    <t>rate_of_speech_respiration_monologue</t>
+  </si>
+  <si>
+    <t>latency_of_respiratory_exchange_monologue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,23 +478,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,24 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,18 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42.90625" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -816,7 +798,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -827,7 +809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -838,7 +820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -849,7 +831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -860,7 +842,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -871,7 +853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -882,7 +864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -893,7 +875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -904,7 +886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -915,7 +897,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -926,7 +908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -937,7 +919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -948,7 +930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -959,7 +941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -970,7 +952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -981,7 +963,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -992,7 +974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1003,7 +985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1014,7 +996,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1025,7 +1007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1036,7 +1018,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1047,7 +1029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1058,7 +1040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1069,7 +1051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1080,7 +1062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1091,7 +1073,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1102,7 +1084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1113,7 +1095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1124,7 +1106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1135,7 +1117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1146,7 +1128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1157,7 +1139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1168,7 +1150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1179,7 +1161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1190,7 +1172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1201,7 +1183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1212,7 +1194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1223,7 +1205,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1234,7 +1216,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1245,7 +1227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1256,7 +1238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1267,7 +1249,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1278,7 +1260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1289,7 +1271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1300,7 +1282,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1311,7 +1293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1322,7 +1304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1333,7 +1315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1344,7 +1326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1355,7 +1337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1366,7 +1348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1377,7 +1359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1396,10 +1378,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1407,10 +1389,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1418,10 +1400,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1429,10 +1411,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1440,10 +1422,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1451,10 +1433,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1462,10 +1444,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1473,10 +1455,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1484,10 +1466,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1495,10 +1477,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1506,10 +1488,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1517,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
